--- a/biology/Biologie cellulaire et moléculaire/Liste_d'hormones/Liste_d'hormones.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Liste_d'hormones/Liste_d'hormones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27hormones</t>
+          <t>Liste_d'hormones</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article est une liste d'hormones.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27hormones</t>
+          <t>Liste_d'hormones</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Hormones hypothalamiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hormone de libération de l'hormone de croissance (GHRH)
 Gonadolibérine ou lulibérine (GnRH)
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27hormones</t>
+          <t>Liste_d'hormones</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hormones anté-hypophysaires
-Hormone corticotrope ou corticotrophine (ACTH)
+          <t>Hormones anté-hypophysaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hormone corticotrope ou corticotrophine (ACTH)
 Hormone de croissance ou somatotrophine (GH)
 Hormone folliculo-stimulante (FSH)
 Hormone lutéinisante (LH)
@@ -558,11 +577,7 @@
 Mélanostimuline (MSH)
 Prolactine (PRL)
 β-lipotropine
-β-endorphine, voir Endorphine
-Hormones post-hypophysaires
-Ocytocine
-Vasopressine ou hormone anti-diurétique (ADH)
-Hormone de libération de la prolactine  ou Prolactin-Releasing Hormone (PRLH)</t>
+β-endorphine, voir Endorphine</t>
         </is>
       </c>
     </row>
@@ -572,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27hormones</t>
+          <t>Liste_d'hormones</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,21 +602,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hormones gonadiques</t>
+          <t>Hormones hypophysaires</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Exemple d'un hormones gonadique
-Estrogènes ou Œstrogènes
-Progestérone
-Inhibine
-Relaxine
-Testicules
-Testostérone et Estrogène 
-Inhibine
-Hormone antimullérienne</t>
+          <t>Hormones post-hypophysaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ocytocine
+Vasopressine ou hormone anti-diurétique (ADH)
+Hormone de libération de la prolactine  ou Prolactin-Releasing Hormone (PRLH)</t>
         </is>
       </c>
     </row>
@@ -611,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27hormones</t>
+          <t>Liste_d'hormones</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,10 +640,122 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Hormones gonadiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hormones gonadiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Exemple d'un hormones gonadique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Estrogènes ou Œstrogènes
+Progestérone
+Inhibine
+Relaxine</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hormones gonadiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Testicules</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Testostérone et Estrogène 
+Inhibine
+Hormone antimullérienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Hormones thyroïdiennes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Triiodothyronine (T3)
 Tétraiodothyronine ou thyroxine (T4)
@@ -638,98 +764,141 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Hormones parathyroïdiennes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Parathormone (PTH)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Hormones surrénaliennes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cortex
-Androgènes: sulfate de déhydroépiandrostérone (DHEAS) et déhydroépiandrostérone (DHEA)
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cortex</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Androgènes: sulfate de déhydroépiandrostérone (DHEAS) et déhydroépiandrostérone (DHEA)
 Minéralocorticoïde: Aldostérone
-Glucocorticoïde:Cortisol
-Médulla
-Adrénaline
+Glucocorticoïde:Cortisol</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hormones surrénaliennes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Médulla</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adrénaline
 Noradrénaline
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Hormones pancréatiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Glucagon
 Insuline
@@ -739,62 +908,66 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Hormones rénales</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Érythropoïétine (EPO)
 Rénine</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Hormones digestives</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Gastrine
 Sécrétine
@@ -806,31 +979,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Hormones hépatiques</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Angiotensine
 Hepcidine
@@ -839,92 +1014,98 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Hormones thymiques</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Thymopoïétine</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Hormones épiphysaires</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Mélatonine
 </t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Hormones placentaires</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Gonadotrophine chorionique (HCG)
 Estrogènes ou Œstrogènes
@@ -934,61 +1115,65 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Hormones cardiaques</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Facteur Atrial Natriurétique (NAF)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Hormones adipocytaires</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Leptine
 Adiponectine
@@ -996,31 +1181,33 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Autacoïdes (hormones locales)</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Eicosanoïdes
 Angiotensine
@@ -1038,31 +1225,33 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_d'hormones</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27hormones</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Hormones végétales</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Acide abscissique
 Auxines
